--- a/Spring_2022/radInteractions/08Feb2022_SrimActivity.xlsx
+++ b/Spring_2022/radInteractions/08Feb2022_SrimActivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshl\school\Spring_2022\radInteractions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278224C5-D3D6-4A0F-8760-ACB0CFA942E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E463D8-B0B9-4E46-87CD-8E26DBEFEF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" activeTab="2" xr2:uid="{718FA1DC-C59C-459A-BCD5-2AE1421CEB33}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" activeTab="1" xr2:uid="{718FA1DC-C59C-459A-BCD5-2AE1421CEB33}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -2496,16 +2496,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2986,8 +2986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632AE549-8BB4-4ECA-A80E-0BDE7D7ADA98}">
   <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView topLeftCell="E12" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -3062,7 +3062,7 @@
         <v>0.12770000000000001</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="0">G$107-G3</f>
+        <f>G$107-G3</f>
         <v>36789.872300000003</v>
       </c>
       <c r="K3">
@@ -3108,11 +3108,11 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G30" si="1">E4/10000</f>
+        <f t="shared" ref="G4:G30" si="0">E4/10000</f>
         <v>0.13819999999999999</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H3:H66" si="1">G$107-G4</f>
         <v>36789.861799999999</v>
       </c>
       <c r="K4">
@@ -3158,11 +3158,11 @@
         <v>11</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1484</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f>G$107-G5</f>
         <v>36789.851600000002</v>
       </c>
       <c r="K5">
@@ -3208,11 +3208,11 @@
         <v>11</v>
       </c>
       <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.1583</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="1"/>
-        <v>0.1583</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
         <v>36789.841699999997</v>
       </c>
       <c r="K6">
@@ -3258,11 +3258,11 @@
         <v>11</v>
       </c>
       <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.1681</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="1"/>
-        <v>0.1681</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
         <v>36789.831899999997</v>
       </c>
       <c r="K7">
@@ -3308,11 +3308,11 @@
         <v>11</v>
       </c>
       <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.17760000000000001</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="1"/>
-        <v>0.17760000000000001</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
         <v>36789.822399999997</v>
       </c>
       <c r="K8">
@@ -3358,11 +3358,11 @@
         <v>11</v>
       </c>
       <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.18690000000000001</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="1"/>
-        <v>0.18690000000000001</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
         <v>36789.813099999999</v>
       </c>
       <c r="K9">
@@ -3408,11 +3408,11 @@
         <v>11</v>
       </c>
       <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.1961</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="1"/>
-        <v>0.1961</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
         <v>36789.803899999999</v>
       </c>
       <c r="K10">
@@ -3458,11 +3458,11 @@
         <v>11</v>
       </c>
       <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.20519999999999999</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="1"/>
-        <v>0.20519999999999999</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
         <v>36789.794800000003</v>
       </c>
       <c r="K11">
@@ -3508,11 +3508,11 @@
         <v>11</v>
       </c>
       <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="1"/>
-        <v>0.22289999999999999</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
         <v>36789.777099999999</v>
       </c>
       <c r="K12">
@@ -3558,11 +3558,11 @@
         <v>11</v>
       </c>
       <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.24440000000000001</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="1"/>
-        <v>0.24440000000000001</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
         <v>36789.755599999997</v>
       </c>
       <c r="K13">
@@ -3608,11 +3608,11 @@
         <v>11</v>
       </c>
       <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.26529999999999998</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="1"/>
-        <v>0.26529999999999998</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
         <v>36789.734700000001</v>
       </c>
       <c r="K14">
@@ -3658,11 +3658,11 @@
         <v>11</v>
       </c>
       <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0.2858</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="1"/>
-        <v>0.2858</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
         <v>36789.714200000002</v>
       </c>
       <c r="K15">
@@ -3708,11 +3708,11 @@
         <v>11</v>
       </c>
       <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0.30590000000000001</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="1"/>
-        <v>0.30590000000000001</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
         <v>36789.694100000001</v>
       </c>
       <c r="K16">
@@ -3758,11 +3758,11 @@
         <v>11</v>
       </c>
       <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0.32569999999999999</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="1"/>
-        <v>0.32569999999999999</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
         <v>36789.674299999999</v>
       </c>
       <c r="K17">
@@ -3808,11 +3808,11 @@
         <v>11</v>
       </c>
       <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0.3453</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="1"/>
-        <v>0.3453</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
         <v>36789.654699999999</v>
       </c>
       <c r="K18">
@@ -3858,11 +3858,11 @@
         <v>11</v>
       </c>
       <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0.36470000000000002</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="1"/>
-        <v>0.36470000000000002</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
         <v>36789.635300000002</v>
       </c>
       <c r="K19">
@@ -3908,11 +3908,11 @@
         <v>11</v>
       </c>
       <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0.38390000000000002</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="1"/>
-        <v>0.38390000000000002</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
         <v>36789.616099999999</v>
       </c>
       <c r="K20">
@@ -3958,11 +3958,11 @@
         <v>11</v>
       </c>
       <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="1"/>
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
         <v>36789.578000000001</v>
       </c>
       <c r="K21">
@@ -4008,11 +4008,11 @@
         <v>11</v>
       </c>
       <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0.45989999999999998</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="1"/>
-        <v>0.45989999999999998</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
         <v>36789.540099999998</v>
       </c>
       <c r="K22">
@@ -4062,7 +4062,7 @@
         <v>0.49769999999999998</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36789.5023</v>
       </c>
       <c r="K23">
@@ -4108,11 +4108,11 @@
         <v>11</v>
       </c>
       <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0.53539999999999999</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="1"/>
-        <v>0.53539999999999999</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
         <v>36789.464599999999</v>
       </c>
       <c r="K24">
@@ -4158,11 +4158,11 @@
         <v>11</v>
       </c>
       <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0.57330000000000003</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="1"/>
-        <v>0.57330000000000003</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
         <v>36789.426700000004</v>
       </c>
       <c r="K25">
@@ -4208,11 +4208,11 @@
         <v>11</v>
       </c>
       <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0.61129999999999995</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="1"/>
-        <v>0.61129999999999995</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
         <v>36789.388700000003</v>
       </c>
       <c r="K26">
@@ -4258,11 +4258,11 @@
         <v>11</v>
       </c>
       <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="1"/>
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
         <v>36789.311999999998</v>
       </c>
       <c r="K27">
@@ -4308,11 +4308,11 @@
         <v>11</v>
       </c>
       <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="1"/>
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
         <v>36789.233999999997</v>
       </c>
       <c r="K28">
@@ -4358,11 +4358,11 @@
         <v>11</v>
       </c>
       <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0.84530000000000005</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="1"/>
-        <v>0.84530000000000005</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
         <v>36789.154699999999</v>
       </c>
       <c r="K29">
@@ -4408,11 +4408,11 @@
         <v>11</v>
       </c>
       <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0.92620000000000002</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="1"/>
-        <v>0.92620000000000002</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
         <v>36789.073799999998</v>
       </c>
       <c r="K30">
@@ -4462,7 +4462,7 @@
         <v>1.01</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36788.99</v>
       </c>
       <c r="K31">
@@ -4512,7 +4512,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36788.910000000003</v>
       </c>
       <c r="K32">
@@ -4562,7 +4562,7 @@
         <v>1.18</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36788.82</v>
       </c>
       <c r="K33">
@@ -4612,7 +4612,7 @@
         <v>1.27</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36788.730000000003</v>
       </c>
       <c r="K34">
@@ -4662,7 +4662,7 @@
         <v>1.36</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36788.639999999999</v>
       </c>
       <c r="K35">
@@ -4712,7 +4712,7 @@
         <v>1.45</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36788.550000000003</v>
       </c>
       <c r="K36">
@@ -4762,7 +4762,7 @@
         <v>1.54</v>
       </c>
       <c r="H37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36788.46</v>
       </c>
       <c r="K37">
@@ -4812,7 +4812,7 @@
         <v>1.73</v>
       </c>
       <c r="H38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36788.269999999997</v>
       </c>
       <c r="K38">
@@ -4862,7 +4862,7 @@
         <v>1.98</v>
       </c>
       <c r="H39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36788.019999999997</v>
       </c>
       <c r="K39">
@@ -4912,7 +4912,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36787.760000000002</v>
       </c>
       <c r="K40">
@@ -4962,7 +4962,7 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="H41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36787.49</v>
       </c>
       <c r="K41">
@@ -5012,7 +5012,7 @@
         <v>2.8</v>
       </c>
       <c r="H42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36787.199999999997</v>
       </c>
       <c r="K42">
@@ -5062,7 +5062,7 @@
         <v>3.09</v>
       </c>
       <c r="H43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36786.910000000003</v>
       </c>
       <c r="K43">
@@ -5112,7 +5112,7 @@
         <v>3.39</v>
       </c>
       <c r="H44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36786.61</v>
       </c>
       <c r="K44">
@@ -5162,7 +5162,7 @@
         <v>3.71</v>
       </c>
       <c r="H45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36786.29</v>
       </c>
       <c r="K45">
@@ -5212,7 +5212,7 @@
         <v>4.03</v>
       </c>
       <c r="H46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36785.97</v>
       </c>
       <c r="K46">
@@ -5262,7 +5262,7 @@
         <v>4.7</v>
       </c>
       <c r="H47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36785.300000000003</v>
       </c>
       <c r="K47">
@@ -5312,7 +5312,7 @@
         <v>5.42</v>
       </c>
       <c r="H48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36784.58</v>
       </c>
       <c r="K48">
@@ -5362,7 +5362,7 @@
         <v>6.16</v>
       </c>
       <c r="H49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36783.839999999997</v>
       </c>
       <c r="K49">
@@ -5412,7 +5412,7 @@
         <v>6.95</v>
       </c>
       <c r="H50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36783.050000000003</v>
       </c>
       <c r="K50">
@@ -5462,7 +5462,7 @@
         <v>7.77</v>
       </c>
       <c r="H51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36782.230000000003</v>
       </c>
       <c r="K51">
@@ -5512,7 +5512,7 @@
         <v>8.6199999999999992</v>
       </c>
       <c r="H52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36781.379999999997</v>
       </c>
       <c r="K52">
@@ -5562,7 +5562,7 @@
         <v>10.42</v>
       </c>
       <c r="H53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36779.58</v>
       </c>
       <c r="K53">
@@ -5612,7 +5612,7 @@
         <v>12.34</v>
       </c>
       <c r="H54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36777.660000000003</v>
       </c>
       <c r="K54">
@@ -5662,7 +5662,7 @@
         <v>14.38</v>
       </c>
       <c r="H55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36775.620000000003</v>
       </c>
       <c r="K55">
@@ -5712,7 +5712,7 @@
         <v>16.54</v>
       </c>
       <c r="H56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36773.46</v>
       </c>
       <c r="K56">
@@ -5762,7 +5762,7 @@
         <v>18.829999999999998</v>
       </c>
       <c r="H57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36771.17</v>
       </c>
       <c r="K57">
@@ -5812,7 +5812,7 @@
         <v>21.26</v>
       </c>
       <c r="H58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36768.74</v>
       </c>
       <c r="K58">
@@ -5862,7 +5862,7 @@
         <v>23.81</v>
       </c>
       <c r="H59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36766.19</v>
       </c>
       <c r="K59">
@@ -5912,7 +5912,7 @@
         <v>26.48</v>
       </c>
       <c r="H60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36763.519999999997</v>
       </c>
       <c r="K60">
@@ -5962,7 +5962,7 @@
         <v>29.27</v>
       </c>
       <c r="H61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36760.730000000003</v>
       </c>
       <c r="K61">
@@ -6012,7 +6012,7 @@
         <v>32.19</v>
       </c>
       <c r="H62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36757.81</v>
       </c>
       <c r="K62">
@@ -6062,7 +6062,7 @@
         <v>35.22</v>
       </c>
       <c r="H63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36754.78</v>
       </c>
       <c r="K63">
@@ -6112,7 +6112,7 @@
         <v>41.63</v>
       </c>
       <c r="H64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36748.370000000003</v>
       </c>
       <c r="K64">
@@ -6162,7 +6162,7 @@
         <v>50.28</v>
       </c>
       <c r="H65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36739.72</v>
       </c>
       <c r="K65">
@@ -6212,7 +6212,7 @@
         <v>59.64</v>
       </c>
       <c r="H66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36730.36</v>
       </c>
       <c r="K66">
@@ -8303,7 +8303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F9749F-7E18-4F30-8331-7205C888EBF2}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
